--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9011,16 +9011,16 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>41569200000</v>
+        <v>37573500000</v>
       </c>
       <c r="D343" t="n">
-        <v>41569200000</v>
+        <v>37573500000</v>
       </c>
       <c r="E343" t="n">
-        <v>41569200000</v>
+        <v>37573500000</v>
       </c>
       <c r="F343" t="n">
-        <v>41569200000</v>
+        <v>37573500000</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -9248,6 +9248,81 @@
         <v>39124800000</v>
       </c>
       <c r="G352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>39530200000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>39530200000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>39530200000</v>
+      </c>
+      <c r="F353" t="n">
+        <v>39530200000</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>39461400000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>39461400000</v>
+      </c>
+      <c r="E354" t="n">
+        <v>39461400000</v>
+      </c>
+      <c r="F354" t="n">
+        <v>39461400000</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>39655200000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>39655200000</v>
+      </c>
+      <c r="E355" t="n">
+        <v>39655200000</v>
+      </c>
+      <c r="F355" t="n">
+        <v>39655200000</v>
+      </c>
+      <c r="G355" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -9286,16 +9286,16 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>39461400000</v>
+        <v>39524600000</v>
       </c>
       <c r="D354" t="n">
-        <v>39461400000</v>
+        <v>39524600000</v>
       </c>
       <c r="E354" t="n">
-        <v>39461400000</v>
+        <v>39524600000</v>
       </c>
       <c r="F354" t="n">
-        <v>39461400000</v>
+        <v>39524600000</v>
       </c>
       <c r="G354" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -9211,16 +9211,16 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>39042900000</v>
+        <v>39146200000</v>
       </c>
       <c r="D351" t="n">
-        <v>39042900000</v>
+        <v>39146200000</v>
       </c>
       <c r="E351" t="n">
-        <v>39042900000</v>
+        <v>39146200000</v>
       </c>
       <c r="F351" t="n">
-        <v>39042900000</v>
+        <v>39146200000</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
@@ -9236,16 +9236,16 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>39124800000</v>
+        <v>39242500000</v>
       </c>
       <c r="D352" t="n">
-        <v>39124800000</v>
+        <v>39242500000</v>
       </c>
       <c r="E352" t="n">
-        <v>39124800000</v>
+        <v>39242500000</v>
       </c>
       <c r="F352" t="n">
-        <v>39124800000</v>
+        <v>39242500000</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>
@@ -9261,16 +9261,16 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>39530200000</v>
+        <v>39507400000</v>
       </c>
       <c r="D353" t="n">
-        <v>39530200000</v>
+        <v>39507400000</v>
       </c>
       <c r="E353" t="n">
-        <v>39530200000</v>
+        <v>39507400000</v>
       </c>
       <c r="F353" t="n">
-        <v>39530200000</v>
+        <v>39507400000</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
@@ -9311,18 +9311,43 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>39655200000</v>
+        <v>39631200000</v>
       </c>
       <c r="D355" t="n">
-        <v>39655200000</v>
+        <v>39631200000</v>
       </c>
       <c r="E355" t="n">
-        <v>39655200000</v>
+        <v>39631200000</v>
       </c>
       <c r="F355" t="n">
-        <v>39655200000</v>
+        <v>39631200000</v>
       </c>
       <c r="G355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>39684500000</v>
+      </c>
+      <c r="D356" t="n">
+        <v>39684500000</v>
+      </c>
+      <c r="E356" t="n">
+        <v>39684500000</v>
+      </c>
+      <c r="F356" t="n">
+        <v>39684500000</v>
+      </c>
+      <c r="G356" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9351,6 +9351,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>39241800000</v>
+      </c>
+      <c r="D357" t="n">
+        <v>39241800000</v>
+      </c>
+      <c r="E357" t="n">
+        <v>39241800000</v>
+      </c>
+      <c r="F357" t="n">
+        <v>39241800000</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G357"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9376,6 +9376,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>39169100000</v>
+      </c>
+      <c r="D358" t="n">
+        <v>39169100000</v>
+      </c>
+      <c r="E358" t="n">
+        <v>39169100000</v>
+      </c>
+      <c r="F358" t="n">
+        <v>39169100000</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>ECONOMICS:KWM2</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>39106700000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>39106700000</v>
+      </c>
+      <c r="E359" t="n">
+        <v>39106700000</v>
+      </c>
+      <c r="F359" t="n">
+        <v>39106700000</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Kuwait_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G359"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8664,6 +8664,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360">
+        <v>39339100000</v>
+      </c>
+      <c r="D360">
+        <v>39339100000</v>
+      </c>
+      <c r="E360">
+        <v>39339100000</v>
+      </c>
+      <c r="F360">
+        <v>39339100000</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
